--- a/dados/dados_kozak2017.xlsx
+++ b/dados/dados_kozak2017.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deoclecio\Documents\Cena\Cursos_Extensao_CENA\ADR\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE792C2-5F8C-4FC6-9708-6F06037FDA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C86E0-F950-4262-87D1-A019C48C1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-2412" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EX1" sheetId="1" r:id="rId1"/>
     <sheet name="EX2" sheetId="2" r:id="rId2"/>
+    <sheet name="EX3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="22">
   <si>
     <t>trat</t>
   </si>
@@ -41,13 +42,64 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>bloco</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>rep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,13 +107,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,11 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,384 +426,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="1">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="1">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="1">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
         <v>41</v>
       </c>
     </row>
@@ -751,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD929CD-7345-4FF5-A8CE-92C11AA772BA}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +996,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>120</v>
       </c>
     </row>
@@ -859,6 +1062,527 @@
       </c>
       <c r="B13">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89EBC34-89CE-4586-A45E-6C0A33CB041B}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/dados/dados_kozak2017.xlsx
+++ b/dados/dados_kozak2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deoclecio\Documents\Cena\Cursos_Extensao_CENA\ADR\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C86E0-F950-4262-87D1-A019C48C1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89DFC2D-7F35-497F-AB12-E4AE3263E2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="-2412" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EX1" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD929CD-7345-4FF5-A8CE-92C11AA772BA}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89EBC34-89CE-4586-A45E-6C0A33CB041B}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
